--- a/Waste/Dry Waste Bin(buzzer)/dry_waste_bin_buzzer.xlsx
+++ b/Waste/Dry Waste Bin(buzzer)/dry_waste_bin_buzzer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Components</t>
   </si>
@@ -123,21 +123,9 @@
     <t>A0 to A0(analog pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the component upload the code attached.</t>
-  </si>
-  <si>
-    <t>Connect the LCD to Arduino UNO</t>
-  </si>
-  <si>
     <t>Attach the soil moisture sensor to the waste bin</t>
   </si>
   <si>
-    <t>Upload the final code</t>
-  </si>
-  <si>
-    <t>Final code</t>
-  </si>
-  <si>
     <t>Attach the buzzer to the waste bin</t>
   </si>
   <si>
@@ -157,6 +145,21 @@
   </si>
   <si>
     <t>Buzzer beeps when wet waste is disposed in a dry waste bin</t>
+  </si>
+  <si>
+    <t>To check the component upload code001.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>Upload code002</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Connect the buzzer to Arduino UNO</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>180</v>
@@ -738,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -813,10 +816,10 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -824,25 +827,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
